--- a/Final_year_project/Rcode/Datasource/Petroleum.xlsx
+++ b/Final_year_project/Rcode/Datasource/Petroleum.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knust\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Documents/_Typesetting/Final_year_project/Rcode/Datasource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E9A3BE-C038-4FEC-ADDF-BBEA5614707F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29D5DEC-B529-7C45-8C43-1D2C1F69E3DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Gas Oil</t>
   </si>
@@ -42,21 +29,6 @@
   </si>
   <si>
     <t>Year</t>
-  </si>
-  <si>
-    <t>1 1 1.3</t>
-  </si>
-  <si>
-    <t>1 13.9</t>
-  </si>
-  <si>
-    <t>1 17.0</t>
-  </si>
-  <si>
-    <t>1 18.1</t>
-  </si>
-  <si>
-    <t>201 1</t>
   </si>
   <si>
     <t>Gasoline</t>
@@ -118,9 +90,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -158,7 +130,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -264,7 +236,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -406,7 +378,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -416,18 +388,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A209C5-8F04-8C4D-82DC-17C494AA8D28}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E22"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -436,10 +408,10 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -456,7 +428,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -473,7 +445,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -490,7 +462,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -507,7 +479,7 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -524,7 +496,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -541,7 +513,7 @@
         <v>52.4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -558,7 +530,7 @@
         <v>67.2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -575,15 +547,15 @@
         <v>78.400000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2008</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
+      <c r="B10">
+        <v>111.3</v>
+      </c>
+      <c r="C10">
+        <v>113.9</v>
       </c>
       <c r="D10">
         <v>106.5</v>
@@ -592,7 +564,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -609,15 +581,15 @@
         <v>73.099999999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2010</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
+      <c r="B12">
+        <v>117</v>
+      </c>
+      <c r="C12">
+        <v>118.1</v>
       </c>
       <c r="D12">
         <v>91</v>
@@ -626,9 +598,9 @@
         <v>83.8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
+    <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2011</v>
       </c>
       <c r="B13">
         <v>151.9</v>
@@ -643,7 +615,7 @@
         <v>104.8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -660,7 +632,7 @@
         <v>130.6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -677,7 +649,7 @@
         <v>202.8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -694,7 +666,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -711,7 +683,7 @@
         <v>268.3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -728,7 +700,7 @@
         <v>375.7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -745,7 +717,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -762,7 +734,7 @@
         <v>503.9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -779,7 +751,7 @@
         <v>522.5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2020</v>
       </c>

--- a/Final_year_project/Rcode/Datasource/Petroleum.xlsx
+++ b/Final_year_project/Rcode/Datasource/Petroleum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Documents/_Typesetting/Final_year_project/Rcode/Datasource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29D5DEC-B529-7C45-8C43-1D2C1F69E3DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68658AA3-2298-F546-BEAB-2C49799CCCB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Gas Oil</t>
-  </si>
-  <si>
     <t>Kerosene</t>
   </si>
   <si>
@@ -35,6 +32,9 @@
   </si>
   <si>
     <t>LPG</t>
+  </si>
+  <si>
+    <t>Gasoil</t>
   </si>
 </sst>
 </file>
@@ -389,26 +389,26 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
